--- a/src/main/resources/accountPeriodExcelTemplates/summaryStatistics.xlsx
+++ b/src/main/resources/accountPeriodExcelTemplates/summaryStatistics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>OYO ID</t>
   </si>
@@ -39,9 +39,6 @@
     <t>订单总额</t>
   </si>
   <si>
-    <t>本月应结算总额</t>
-  </si>
-  <si>
     <t>本月 OYO 提佣额</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>OYO 佣金税额</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>城市</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>本期入住天数</t>
   </si>
   <si>
-    <t>房间价格</t>
-  </si>
-  <si>
     <t>本月应结算总额（计算）</t>
   </si>
   <si>
@@ -106,6 +97,10 @@
   </si>
   <si>
     <t>当月应付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月房间价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -518,35 +513,33 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="10.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="1"/>
-    <col min="29" max="29" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9" style="1"/>
-    <col min="31" max="31" width="13.5" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" style="1"/>
+    <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,88 +547,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -663,8 +650,6 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/accountPeriodExcelTemplates/summaryStatistics.xlsx
+++ b/src/main/resources/accountPeriodExcelTemplates/summaryStatistics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>OYO ID</t>
   </si>
@@ -102,6 +102,27 @@
   <si>
     <t>本月房间价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时会员卡促销费用</t>
+  </si>
+  <si>
+    <t>有赞平台促销费用</t>
+  </si>
+  <si>
+    <t>飞猪平台促销费用</t>
+  </si>
+  <si>
+    <t>新活动A</t>
+  </si>
+  <si>
+    <t>新活动B</t>
+  </si>
+  <si>
+    <t>新活动C</t>
+  </si>
+  <si>
+    <t>本月已收取的OYO提成</t>
   </si>
 </sst>
 </file>
@@ -185,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +217,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -534,12 +558,14 @@
     <col min="25" max="25" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9" style="1"/>
-    <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="28" max="28" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="9" style="1"/>
+    <col min="34" max="34" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,8 +647,29 @@
       <c r="AA1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -650,6 +697,13 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
